--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150504.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150504.xlsx
@@ -796,15 +796,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
